--- a/温网_atp_df.xlsx
+++ b/温网_atp_df.xlsx
@@ -37,7 +37,7 @@
     <t>明细</t>
   </si>
   <si>
-    <t>&lt;img class=login_img src="https://www.live-tennis.cn/images/login/baidu.png" /&gt;深海森屿深海鱼</t>
+    <t>&lt;img class=login_img src="https://www.live-tennis.cn/images/login/baidu.png" /&gt;萨卡外</t>
   </si>
   <si>
     <t>&lt;img class=login_img src="https://www.live-tennis.cn/images/login/baidu.png" /&gt;__Novak__</t>
@@ -172,7 +172,7 @@
     <t>&lt;img class=login_img src="https://www.live-tennis.cn/images/login/weibo.png" /&gt;网球爱好者Schur</t>
   </si>
   <si>
-    <t>&lt;img class=login_img src="https://www.live-tennis.cn/images/login/weibo.png" /&gt;小坂直美Prototype</t>
+    <t>&lt;img class=login_img src="https://www.live-tennis.cn/images/login/weibo.png" /&gt;那不勒斯Jasper</t>
   </si>
   <si>
     <t>&lt;img class=login_img src="https://www.live-tennis.cn/images/login/baidu.png" /&gt;丨Salvation丨</t>
@@ -247,7 +247,7 @@
     <t>&lt;img class=login_img src="https://www.live-tennis.cn/images/login/baidu.png" /&gt;188******62</t>
   </si>
   <si>
-    <t>&lt;img class=login_img src="https://www.live-tennis.cn/images/login/baidu.png" /&gt;543236280</t>
+    <t>&lt;img class=login_img src="https://www.live-tennis.cn/images/login/baidu.png" /&gt;黑***友</t>
   </si>
   <si>
     <t>&lt;img class=login_img src="https://www.live-tennis.cn/images/login/weibo.png" /&gt;派派派崔克</t>
@@ -319,7 +319,7 @@
     <t>&lt;img class=login_img src="https://www.live-tennis.cn/images/login/weibo.png" /&gt;风儿007008</t>
   </si>
   <si>
-    <t>&lt;img class=login_img src="https://www.live-tennis.cn/images/login/baidu.png" /&gt;如***7</t>
+    <t>&lt;img class=login_img src="https://www.live-tennis.cn/images/login/baidu.png" /&gt;吴二饼</t>
   </si>
   <si>
     <t>&lt;img class=login_img src="https://www.live-tennis.cn/images/login/weibo.png" /&gt;嘚嘚啵咿</t>
@@ -448,7 +448,7 @@
     <t>&lt;img class=login_img src="https://www.live-tennis.cn/images/login/baidu.png" /&gt;忆***枫</t>
   </si>
   <si>
-    <t>&lt;img class=login_img src="https://www.live-tennis.cn/images/login/baidu.png" /&gt;登***煌</t>
+    <t>&lt;img class=login_img src="https://www.live-tennis.cn/images/login/baidu.png" /&gt;法拉利策略组</t>
   </si>
   <si>
     <t>&lt;img class=login_img src="https://www.live-tennis.cn/images/login/google.png" /&gt;Jiakun Yi</t>
@@ -457,7 +457,7 @@
     <t>&lt;img class=login_img src="https://www.live-tennis.cn/images/login/baidu.png" /&gt;顶***家</t>
   </si>
   <si>
-    <t>&lt;img class=login_img src="https://www.live-tennis.cn/images/login/weibo.png" /&gt;614CMPUNK</t>
+    <t>&lt;img class=login_img src="https://www.live-tennis.cn/images/login/weibo.png" /&gt;Aaron-Rodgers</t>
   </si>
   <si>
     <t>&lt;img class=login_img src="https://www.live-tennis.cn/images/login/weibo.png" /&gt;百香柠檬水666</t>
@@ -697,7 +697,7 @@
     <t>&lt;img class=login_img src="https://www.live-tennis.cn/images/login/baidu.png" /&gt;D***3</t>
   </si>
   <si>
-    <t>&lt;img class=login_img src="https://www.live-tennis.cn/images/login/baidu.png" /&gt;181******37</t>
+    <t>&lt;img class=login_img src="https://www.live-tennis.cn/images/login/baidu.png" /&gt;大***5</t>
   </si>
   <si>
     <t>&lt;img class=login_img src="https://www.live-tennis.cn/images/login/weibo.png" /&gt;烟雾日影</t>
